--- a/Question_Sets/Role-specific skills/Video Content Creator.xlsx
+++ b/Question_Sets/Role-specific skills/Video Content Creator.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work as a video marketer for a SaaS company that is launching a new product which will be offered as an upgrade option for existing customers. The overall goals of the product include increased plan upgrades, increased active users, and increased sales leads. You are responsible for planning the video portion of a marketing campaign and must decide which goal to prioritize.How can you best determine which goal to prioritize in your campaign?', 'ques_type': 2, 'options': ['Create three storyboards, focusing on each goal separately, and present them to the stakeholders to decide on the campaign’s direction.', 'Analyze user data from the company’s social and advertisement channels to determine the goals that are best suited for each platform.', 'Define the problem that this video is trying to solve with stakeholders to uncover which goal will have the biggest business impact.', 'Research successful competitor video campaigns to determine which goals they prioritize, and model your own campaign after them. '], 'score': 'Define the problem that this video is trying to solve with stakeholders to uncover which goal will have the biggest business impact.'}, {'title': 'You’ve been tasked with creating an Instagram reel to help increase sign-ups to the company’s newsletter. The company has not used Instagram reels before, so they ask you to first create the process you will use and share it with them. Which of the following steps should you use earliest in the process?', 'ques_type': 2, 'options': ['Decide on the music. ', 'Select a visual style.', 'Determine the call to action.', 'Define how long the reel should be.'], 'score': 'Determine the call to action.'}, {'title': 'You are editing a marketing video based on your colleague’s notes. One note reads that the title should “ease in” from off-screen to center on-screen. How should you implement this note?', 'ques_type': 2, 'options': ['Have the title’s motion accelerate (speed up) as it goes from off-screen to centered on-screen.', 'Have the title’s motion decelerate (slow down) as it goes from off-screen to centered on-screen.', 'Have the title’s motion keep a constant speed as it goes from off-screen to centered on-screen.', 'Have the title’s motion accelerate (speed up) from off-screen, then decelerate (slow down) to centered on-screen.'], 'score': 'Have the title’s motion decelerate (slow down) as it goes from off-screen to centered on-screen.'}, {'title': 'You’re preparing a video file for your latest marketing campaign using 4k footage. The final video will be shown on-screen during pre-movie advertising segments at theaters, as well as on their websites. The theater requires a Full HD final file, and you want to get the best possible export quality. Which of the following practices should you follow?', 'ques_type': 2, 'options': ['Set up the video files at 3840 x 2160 resolution. Export in Full HD.', 'Set up the video files at 1280 x 720 resolution. Export in Full HD.', 'Set up the video files at 1920 x 1080 resolution. Export in Full HD.', 'Set up the video files at 1080 x 1920 resolution. Export in Full HD.'], 'score': 'Set up the video files at 1920 x 1080 resolution. Export in Full HD.'}]</t>
+    <t>questions = [
+    {
+        "title": "You work as a video marketer for a SaaS company that is launching a new product which will be offered as an upgrade option for existing customers. The overall goals of the product include increased plan upgrades, increased active users, and increased sales leads. You are responsible for planning the video portion of a marketing campaign and must decide which goal to prioritize.How can you best determine which goal to prioritize in your campaign?",
+        "ques_type": 2,
+        "options": [
+            "Create three storyboards, focusing on each goal separately, and present them to the stakeholders to decide on the campaign\u2019s direction.",
+            "Analyze user data from the company\u2019s social and advertisement channels to determine the goals that are best suited for each platform.",
+            "Define the problem that this video is trying to solve with stakeholders to uncover which goal will have the biggest business impact.",
+            "Research successful competitor video campaigns to determine which goals they prioritize, and model your own campaign after them. "
+        ],
+        "score": "Define the problem that this video is trying to solve with stakeholders to uncover which goal will have the biggest business impact."
+    },
+    {
+        "title": "You\u2019ve been tasked with creating an Instagram reel to help increase sign-ups to the company\u2019s newsletter. The company has not used Instagram reels before, so they ask you to first create the process you will use and share it with them. Which of the following steps should you use earliest in the process?",
+        "ques_type": 2,
+        "options": [
+            "Decide on the music. ",
+            "Select a visual style.",
+            "Determine the call to action.",
+            "Define how long the reel should be."
+        ],
+        "score": "Determine the call to action."
+    },
+    {
+        "title": "You are editing a marketing video based on your colleague\u2019s notes. One note reads that the title should \u201cease in\u201d from off-screen to center on-screen. How should you implement this note?",
+        "ques_type": 2,
+        "options": [
+            "Have the title\u2019s motion accelerate (speed up) as it goes from off-screen to centered on-screen.",
+            "Have the title\u2019s motion decelerate (slow down) as it goes from off-screen to centered on-screen.",
+            "Have the title\u2019s motion keep a constant speed as it goes from off-screen to centered on-screen.",
+            "Have the title\u2019s motion accelerate (speed up) from off-screen, then decelerate (slow down) to centered on-screen."
+        ],
+        "score": "Have the title\u2019s motion decelerate (slow down) as it goes from off-screen to centered on-screen."
+    },
+    {
+        "title": "You\u2019re preparing a video file for your latest marketing campaign using 4k footage. The final video will be shown on-screen during pre-movie advertising segments at theaters, as well as on their websites. The theater requires a Full HD final file, and you want to get the best possible export quality. Which of the following practices should you follow?",
+        "ques_type": 2,
+        "options": [
+            "Set up the video files at 3840 x 2160 resolution. Export in Full HD.",
+            "Set up the video files at 1280 x 720 resolution. Export in Full HD.",
+            "Set up the video files at 1920 x 1080 resolution. Export in Full HD.",
+            "Set up the video files at 1080 x 1920 resolution. Export in Full HD."
+        ],
+        "score": "Set up the video files at 1920 x 1080 resolution. Export in Full HD."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
